--- a/user_sheets/estoque.xlsx
+++ b/user_sheets/estoque.xlsx
@@ -4,19 +4,20 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="inventory" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Página1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="LuJMsf9PMTd18Fwp6kPOrnf2hIgEtHvt3MZT6ojSTI8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="oPsFV1XxCHcDSDEa2EcnH5Tjvx0CeonEu+bDrYlD20U="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="112">
   <si>
     <t>part_number</t>
   </si>
@@ -432,6 +433,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3123,4 +3128,313 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4">
+        <v>100001.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45797.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5000.0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4">
+        <v>10005.0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>5000.0</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="str">
+        <f t="shared" ref="A3:U3" si="1">concat(A1,";")</f>
+        <v>part_number;</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>id_movimentacao;</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>data_movimentacao;</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>id_item;</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>tipo_movimentacao;</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>quantidade_movimentada;</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>deposito_origem;</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>deposito_destino;</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lote_item;</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>validade_lote;</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>custo_unitario_movimentacao;</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>referencia_documento;</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>responsavel_movimentacao;</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>saldo_final_deposito;</v>
+      </c>
+      <c r="O3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>motivo_ajuste;</v>
+      </c>
+      <c r="P3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>status_inspecao_recebimento;</v>
+      </c>
+      <c r="Q3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>posicao_estoque_fisica;</v>
+      </c>
+      <c r="R3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>reserva_para_ordem_producao;</v>
+      </c>
+      <c r="S3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>reserva_para_pedido_venda;</v>
+      </c>
+      <c r="T3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>estoque_em_transito;</v>
+      </c>
+      <c r="U3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>estoque_disponivel_para_venda;</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="str">
+        <f t="shared" ref="A4:U4" si="2">concat(A2,";")</f>
+        <v>100001;</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1;</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>45797;</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>1;</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Entrada por Compra;</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>5000;</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Fornecedor Aço;</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Almoxarifado PP;</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>L2025052001;</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>;</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>2.50;</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>OC-0010;</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>10005;</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>5000;</v>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>;</v>
+      </c>
+      <c r="P4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Aprovado;</v>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>A1-01-01;</v>
+      </c>
+      <c r="R4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>;</v>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>;</v>
+      </c>
+      <c r="T4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>0;</v>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>5000;</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>